--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.535056706126626</v>
+        <v>0.7127066666666666</v>
       </c>
       <c r="N2">
-        <v>0.535056706126626</v>
+        <v>2.13812</v>
       </c>
       <c r="O2">
-        <v>0.116185481211928</v>
+        <v>0.1444650589513412</v>
       </c>
       <c r="P2">
-        <v>0.116185481211928</v>
+        <v>0.1743027303829945</v>
       </c>
       <c r="Q2">
-        <v>73.77959388831978</v>
+        <v>108.1361827839778</v>
       </c>
       <c r="R2">
-        <v>73.77959388831978</v>
+        <v>973.2256450558</v>
       </c>
       <c r="S2">
-        <v>0.03039319331810373</v>
+        <v>0.03901624851510998</v>
       </c>
       <c r="T2">
-        <v>0.03039319331810373</v>
+        <v>0.0485148380373533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.20733731906356</v>
+        <v>1.303474333333333</v>
       </c>
       <c r="N3">
-        <v>1.20733731906356</v>
+        <v>3.910423</v>
       </c>
       <c r="O3">
-        <v>0.2621685996910417</v>
+        <v>0.2642131822440651</v>
       </c>
       <c r="P3">
-        <v>0.2621685996910417</v>
+        <v>0.318783513484959</v>
       </c>
       <c r="Q3">
-        <v>166.4811524960896</v>
+        <v>197.7710401149939</v>
       </c>
       <c r="R3">
-        <v>166.4811524960896</v>
+        <v>1779.939361034945</v>
       </c>
       <c r="S3">
-        <v>0.06858121039936221</v>
+        <v>0.07135709668643571</v>
       </c>
       <c r="T3">
-        <v>0.06858121039936221</v>
+        <v>0.08872913517601501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.177045043976645</v>
+        <v>0.2092073333333333</v>
       </c>
       <c r="N4">
-        <v>0.177045043976645</v>
+        <v>0.627622</v>
       </c>
       <c r="O4">
-        <v>0.03844464221282998</v>
+        <v>0.04240615551473194</v>
       </c>
       <c r="P4">
-        <v>0.03844464221282998</v>
+        <v>0.05116468123792667</v>
       </c>
       <c r="Q4">
-        <v>24.41294781462896</v>
+        <v>31.74220685052556</v>
       </c>
       <c r="R4">
-        <v>24.41294781462896</v>
+        <v>285.67986165473</v>
       </c>
       <c r="S4">
-        <v>0.01005681114913621</v>
+        <v>0.01145279775014983</v>
       </c>
       <c r="T4">
-        <v>0.01005681114913621</v>
+        <v>0.01424100596724213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169635961045394</v>
+        <v>0.1744776666666667</v>
       </c>
       <c r="N5">
-        <v>0.169635961045394</v>
+        <v>0.523433</v>
       </c>
       <c r="O5">
-        <v>0.03683578869160571</v>
+        <v>0.03536648046044066</v>
       </c>
       <c r="P5">
-        <v>0.03683578869160571</v>
+        <v>0.0426710386098825</v>
       </c>
       <c r="Q5">
-        <v>23.39130071910931</v>
+        <v>26.47281095689945</v>
       </c>
       <c r="R5">
-        <v>23.39130071910931</v>
+        <v>238.255298612095</v>
       </c>
       <c r="S5">
-        <v>0.009635947926115352</v>
+        <v>0.009551564930410626</v>
       </c>
       <c r="T5">
-        <v>0.009635947926115352</v>
+        <v>0.01187691393299064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.51611918635823</v>
+        <v>2.533553</v>
       </c>
       <c r="N6">
-        <v>2.51611918635823</v>
+        <v>5.067106</v>
       </c>
       <c r="O6">
-        <v>0.5463654881925947</v>
+        <v>0.5135491228294211</v>
       </c>
       <c r="P6">
-        <v>0.5463654881925947</v>
+        <v>0.4130780362842374</v>
       </c>
       <c r="Q6">
-        <v>346.9506121846211</v>
+        <v>384.4060440492984</v>
       </c>
       <c r="R6">
-        <v>346.9506121846211</v>
+        <v>2306.43626429579</v>
       </c>
       <c r="S6">
-        <v>0.1429248450990867</v>
+        <v>0.1386962380140531</v>
       </c>
       <c r="T6">
-        <v>0.1429248450990867</v>
+        <v>0.1149747567527085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.535056706126626</v>
+        <v>0.7127066666666666</v>
       </c>
       <c r="N7">
-        <v>0.535056706126626</v>
+        <v>2.13812</v>
       </c>
       <c r="O7">
-        <v>0.116185481211928</v>
+        <v>0.1444650589513412</v>
       </c>
       <c r="P7">
-        <v>0.116185481211928</v>
+        <v>0.1743027303829945</v>
       </c>
       <c r="Q7">
-        <v>40.45310335536519</v>
+        <v>58.61931868750666</v>
       </c>
       <c r="R7">
-        <v>40.45310335536519</v>
+        <v>527.5738681875599</v>
       </c>
       <c r="S7">
-        <v>0.01666448574463474</v>
+        <v>0.02115023710673338</v>
       </c>
       <c r="T7">
-        <v>0.01666448574463474</v>
+        <v>0.02629930776884938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.20733731906356</v>
+        <v>1.303474333333333</v>
       </c>
       <c r="N8">
-        <v>1.20733731906356</v>
+        <v>3.910423</v>
       </c>
       <c r="O8">
-        <v>0.2621685996910417</v>
+        <v>0.2642131822440651</v>
       </c>
       <c r="P8">
-        <v>0.2621685996910417</v>
+        <v>0.318783513484959</v>
       </c>
       <c r="Q8">
-        <v>91.28105636958254</v>
+        <v>107.2092922941443</v>
       </c>
       <c r="R8">
-        <v>91.28105636958254</v>
+        <v>964.8836306472989</v>
       </c>
       <c r="S8">
-        <v>0.03760284716016383</v>
+        <v>0.03868182030831931</v>
       </c>
       <c r="T8">
-        <v>0.03760284716016383</v>
+        <v>0.04809899256514475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.177045043976645</v>
+        <v>0.2092073333333333</v>
       </c>
       <c r="N9">
-        <v>0.177045043976645</v>
+        <v>0.627622</v>
       </c>
       <c r="O9">
-        <v>0.03844464221282998</v>
+        <v>0.04240615551473194</v>
       </c>
       <c r="P9">
-        <v>0.03844464221282998</v>
+        <v>0.05116468123792667</v>
       </c>
       <c r="Q9">
-        <v>13.3855372347159</v>
+        <v>17.20706697158733</v>
       </c>
       <c r="R9">
-        <v>13.3855372347159</v>
+        <v>154.863602744286</v>
       </c>
       <c r="S9">
-        <v>0.005514115752076565</v>
+        <v>0.006208423340786401</v>
       </c>
       <c r="T9">
-        <v>0.005514115752076565</v>
+        <v>0.007719877341075705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.169635961045394</v>
+        <v>0.1744776666666667</v>
       </c>
       <c r="N10">
-        <v>0.169635961045394</v>
+        <v>0.523433</v>
       </c>
       <c r="O10">
-        <v>0.03683578869160571</v>
+        <v>0.03536648046044066</v>
       </c>
       <c r="P10">
-        <v>0.03683578869160571</v>
+        <v>0.0426710386098825</v>
       </c>
       <c r="Q10">
-        <v>12.8253715660037</v>
+        <v>14.35059109804767</v>
       </c>
       <c r="R10">
-        <v>12.8253715660037</v>
+        <v>129.155319882429</v>
       </c>
       <c r="S10">
-        <v>0.005283357861417722</v>
+        <v>0.005177787991080377</v>
       </c>
       <c r="T10">
-        <v>0.005283357861417722</v>
+        <v>0.006438331601300273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.51611918635823</v>
+        <v>2.533553</v>
       </c>
       <c r="N11">
-        <v>2.51611918635823</v>
+        <v>5.067106</v>
       </c>
       <c r="O11">
-        <v>0.5463654881925947</v>
+        <v>0.5135491228294211</v>
       </c>
       <c r="P11">
-        <v>0.5463654881925947</v>
+        <v>0.4130780362842374</v>
       </c>
       <c r="Q11">
-        <v>190.2318545580074</v>
+        <v>208.381873868663</v>
       </c>
       <c r="R11">
-        <v>190.2318545580074</v>
+        <v>1250.291243211978</v>
       </c>
       <c r="S11">
-        <v>0.07836521219667808</v>
+        <v>0.0751855555429195</v>
       </c>
       <c r="T11">
-        <v>0.07836521219667808</v>
+        <v>0.06232642704403089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.535056706126626</v>
+        <v>0.7127066666666666</v>
       </c>
       <c r="N12">
-        <v>0.535056706126626</v>
+        <v>2.13812</v>
       </c>
       <c r="O12">
-        <v>0.116185481211928</v>
+        <v>0.1444650589513412</v>
       </c>
       <c r="P12">
-        <v>0.116185481211928</v>
+        <v>0.1743027303829945</v>
       </c>
       <c r="Q12">
-        <v>60.95190556078538</v>
+        <v>87.97959053884</v>
       </c>
       <c r="R12">
-        <v>60.95190556078538</v>
+        <v>791.8163148495599</v>
       </c>
       <c r="S12">
-        <v>0.02510888107651985</v>
+        <v>0.03174361698690924</v>
       </c>
       <c r="T12">
-        <v>0.02510888107651985</v>
+        <v>0.03947166873932697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.20733731906356</v>
+        <v>1.303474333333333</v>
       </c>
       <c r="N13">
-        <v>1.20733731906356</v>
+        <v>3.910423</v>
       </c>
       <c r="O13">
-        <v>0.2621685996910417</v>
+        <v>0.2642131822440651</v>
       </c>
       <c r="P13">
-        <v>0.2621685996910417</v>
+        <v>0.318783513484959</v>
       </c>
       <c r="Q13">
-        <v>137.5359086409774</v>
+        <v>160.906504019261</v>
       </c>
       <c r="R13">
-        <v>137.5359086409774</v>
+        <v>1448.158536173349</v>
       </c>
       <c r="S13">
-        <v>0.05665733896331528</v>
+        <v>0.05805612873402832</v>
       </c>
       <c r="T13">
-        <v>0.05665733896331528</v>
+        <v>0.07219001800022692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.177045043976645</v>
+        <v>0.2092073333333333</v>
       </c>
       <c r="N14">
-        <v>0.177045043976645</v>
+        <v>0.627622</v>
       </c>
       <c r="O14">
-        <v>0.03844464221282998</v>
+        <v>0.04240615551473194</v>
       </c>
       <c r="P14">
-        <v>0.03844464221282998</v>
+        <v>0.05116468123792667</v>
       </c>
       <c r="Q14">
-        <v>20.16839089559176</v>
+        <v>25.825457211554</v>
       </c>
       <c r="R14">
-        <v>20.16839089559176</v>
+        <v>232.429114903986</v>
       </c>
       <c r="S14">
-        <v>0.008308283782812285</v>
+        <v>0.009317995426149119</v>
       </c>
       <c r="T14">
-        <v>0.008308283782812285</v>
+        <v>0.01158648143112354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.169635961045394</v>
+        <v>0.1744776666666667</v>
       </c>
       <c r="N15">
-        <v>0.169635961045394</v>
+        <v>0.523433</v>
       </c>
       <c r="O15">
-        <v>0.03683578869160571</v>
+        <v>0.03536648046044066</v>
       </c>
       <c r="P15">
-        <v>0.03683578869160571</v>
+        <v>0.0426710386098825</v>
       </c>
       <c r="Q15">
-        <v>19.32437246175727</v>
+        <v>21.538277091331</v>
       </c>
       <c r="R15">
-        <v>19.32437246175727</v>
+        <v>193.844493821979</v>
       </c>
       <c r="S15">
-        <v>0.007960593939704651</v>
+        <v>0.0077711525406941</v>
       </c>
       <c r="T15">
-        <v>0.007960593939704651</v>
+        <v>0.009663056322017537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.51611918635823</v>
+        <v>2.533553</v>
       </c>
       <c r="N16">
-        <v>2.51611918635823</v>
+        <v>5.067106</v>
       </c>
       <c r="O16">
-        <v>0.5463654881925947</v>
+        <v>0.5135491228294211</v>
       </c>
       <c r="P16">
-        <v>0.5463654881925947</v>
+        <v>0.4130780362842374</v>
       </c>
       <c r="Q16">
-        <v>286.6280475892071</v>
+        <v>312.752729802513</v>
       </c>
       <c r="R16">
-        <v>286.6280475892071</v>
+        <v>1876.516378815078</v>
       </c>
       <c r="S16">
-        <v>0.1180752183856701</v>
+        <v>0.1128432492769838</v>
       </c>
       <c r="T16">
-        <v>0.1180752183856701</v>
+        <v>0.09354345382815564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H17">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I17">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J17">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.535056706126626</v>
+        <v>0.7127066666666666</v>
       </c>
       <c r="N17">
-        <v>0.535056706126626</v>
+        <v>2.13812</v>
       </c>
       <c r="O17">
-        <v>0.116185481211928</v>
+        <v>0.1444650589513412</v>
       </c>
       <c r="P17">
-        <v>0.116185481211928</v>
+        <v>0.1743027303829945</v>
       </c>
       <c r="Q17">
-        <v>80.74113986805548</v>
+        <v>110.0012684235111</v>
       </c>
       <c r="R17">
-        <v>80.74113986805548</v>
+        <v>990.0114158115999</v>
       </c>
       <c r="S17">
-        <v>0.03326097289785107</v>
+        <v>0.03968918372458898</v>
       </c>
       <c r="T17">
-        <v>0.03326097289785107</v>
+        <v>0.04935160076929208</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H18">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I18">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J18">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.20733731906356</v>
+        <v>1.303474333333333</v>
       </c>
       <c r="N18">
-        <v>1.20733731906356</v>
+        <v>3.910423</v>
       </c>
       <c r="O18">
-        <v>0.2621685996910417</v>
+        <v>0.2642131822440651</v>
       </c>
       <c r="P18">
-        <v>0.2621685996910417</v>
+        <v>0.318783513484959</v>
       </c>
       <c r="Q18">
-        <v>182.1896450044008</v>
+        <v>201.1821086152655</v>
       </c>
       <c r="R18">
-        <v>182.1896450044008</v>
+        <v>1810.63897753739</v>
       </c>
       <c r="S18">
-        <v>0.07505225780393016</v>
+        <v>0.07258783271652591</v>
       </c>
       <c r="T18">
-        <v>0.07505225780393016</v>
+        <v>0.09025949653670394</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H19">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I19">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J19">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.177045043976645</v>
+        <v>0.2092073333333333</v>
       </c>
       <c r="N19">
-        <v>0.177045043976645</v>
+        <v>0.627622</v>
       </c>
       <c r="O19">
-        <v>0.03844464221282998</v>
+        <v>0.04240615551473194</v>
       </c>
       <c r="P19">
-        <v>0.03844464221282998</v>
+        <v>0.05116468123792667</v>
       </c>
       <c r="Q19">
-        <v>26.7164554616036</v>
+        <v>32.28968256716222</v>
       </c>
       <c r="R19">
-        <v>26.7164554616036</v>
+        <v>290.60714310446</v>
       </c>
       <c r="S19">
-        <v>0.01100573143365561</v>
+        <v>0.01165033060239555</v>
       </c>
       <c r="T19">
-        <v>0.01100573143365561</v>
+        <v>0.01448662861674024</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H20">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I20">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J20">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.169635961045394</v>
+        <v>0.1744776666666667</v>
       </c>
       <c r="N20">
-        <v>0.169635961045394</v>
+        <v>0.523433</v>
       </c>
       <c r="O20">
-        <v>0.03683578869160571</v>
+        <v>0.03536648046044066</v>
       </c>
       <c r="P20">
-        <v>0.03683578869160571</v>
+        <v>0.0426710386098825</v>
       </c>
       <c r="Q20">
-        <v>25.59840985186483</v>
+        <v>26.92940243518778</v>
       </c>
       <c r="R20">
-        <v>25.59840985186483</v>
+        <v>242.36462191669</v>
       </c>
       <c r="S20">
-        <v>0.01054515724824217</v>
+        <v>0.009716306149567274</v>
       </c>
       <c r="T20">
-        <v>0.01054515724824217</v>
+        <v>0.01208176175587566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H21">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I21">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J21">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.51611918635823</v>
+        <v>2.533553</v>
       </c>
       <c r="N21">
-        <v>2.51611918635823</v>
+        <v>5.067106</v>
       </c>
       <c r="O21">
-        <v>0.5463654881925947</v>
+        <v>0.5135491228294211</v>
       </c>
       <c r="P21">
-        <v>0.5463654881925947</v>
+        <v>0.4130780362842374</v>
       </c>
       <c r="Q21">
-        <v>379.6874776528256</v>
+        <v>391.0361115627633</v>
       </c>
       <c r="R21">
-        <v>379.6874776528256</v>
+        <v>2346.21666937658</v>
       </c>
       <c r="S21">
-        <v>0.1564106591076321</v>
+        <v>0.1410884101355166</v>
       </c>
       <c r="T21">
-        <v>0.1564106591076321</v>
+        <v>0.1169577911285075</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H22">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I22">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J22">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.535056706126626</v>
+        <v>0.7127066666666666</v>
       </c>
       <c r="N22">
-        <v>0.535056706126626</v>
+        <v>2.13812</v>
       </c>
       <c r="O22">
-        <v>0.116185481211928</v>
+        <v>0.1444650589513412</v>
       </c>
       <c r="P22">
-        <v>0.116185481211928</v>
+        <v>0.1743027303829945</v>
       </c>
       <c r="Q22">
-        <v>26.11496064603812</v>
+        <v>35.6583626675</v>
       </c>
       <c r="R22">
-        <v>26.11496064603812</v>
+        <v>213.950176005</v>
       </c>
       <c r="S22">
-        <v>0.01075794817481861</v>
+        <v>0.01286577261799959</v>
       </c>
       <c r="T22">
-        <v>0.01075794817481861</v>
+        <v>0.01066531506817279</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H23">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I23">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J23">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.20733731906356</v>
+        <v>1.303474333333333</v>
       </c>
       <c r="N23">
-        <v>1.20733731906356</v>
+        <v>3.910423</v>
       </c>
       <c r="O23">
-        <v>0.2621685996910417</v>
+        <v>0.2642131822440651</v>
       </c>
       <c r="P23">
-        <v>0.2621685996910417</v>
+        <v>0.318783513484959</v>
       </c>
       <c r="Q23">
-        <v>58.92752340604489</v>
+        <v>65.2158351810625</v>
       </c>
       <c r="R23">
-        <v>58.92752340604489</v>
+        <v>391.295011086375</v>
       </c>
       <c r="S23">
-        <v>0.02427494536427018</v>
+        <v>0.02353030379875583</v>
       </c>
       <c r="T23">
-        <v>0.02427494536427018</v>
+        <v>0.01950587120686839</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H24">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I24">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J24">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.177045043976645</v>
+        <v>0.2092073333333333</v>
       </c>
       <c r="N24">
-        <v>0.177045043976645</v>
+        <v>0.627622</v>
       </c>
       <c r="O24">
-        <v>0.03844464221282998</v>
+        <v>0.04240615551473194</v>
       </c>
       <c r="P24">
-        <v>0.03844464221282998</v>
+        <v>0.05116468123792667</v>
       </c>
       <c r="Q24">
-        <v>8.64118569692681</v>
+        <v>10.467126678625</v>
       </c>
       <c r="R24">
-        <v>8.64118569692681</v>
+        <v>62.80276007175001</v>
       </c>
       <c r="S24">
-        <v>0.003559700095149311</v>
+        <v>0.003776608395251033</v>
       </c>
       <c r="T24">
-        <v>0.003559700095149311</v>
+        <v>0.003130687881745058</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H25">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I25">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J25">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.169635961045394</v>
+        <v>0.1744776666666667</v>
       </c>
       <c r="N25">
-        <v>0.169635961045394</v>
+        <v>0.523433</v>
       </c>
       <c r="O25">
-        <v>0.03683578869160571</v>
+        <v>0.03536648046044066</v>
       </c>
       <c r="P25">
-        <v>0.03683578869160571</v>
+        <v>0.0426710386098825</v>
       </c>
       <c r="Q25">
-        <v>8.279564382854238</v>
+        <v>8.7295211429375</v>
       </c>
       <c r="R25">
-        <v>8.279564382854238</v>
+        <v>52.37712685762501</v>
       </c>
       <c r="S25">
-        <v>0.003410731716125821</v>
+        <v>0.003149668848688278</v>
       </c>
       <c r="T25">
-        <v>0.003410731716125821</v>
+        <v>0.002610974997698393</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H26">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I26">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J26">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.51611918635823</v>
+        <v>2.533553</v>
       </c>
       <c r="N26">
-        <v>2.51611918635823</v>
+        <v>5.067106</v>
       </c>
       <c r="O26">
-        <v>0.5463654881925947</v>
+        <v>0.5135491228294211</v>
       </c>
       <c r="P26">
-        <v>0.5463654881925947</v>
+        <v>0.4130780362842374</v>
       </c>
       <c r="Q26">
-        <v>122.8063358146868</v>
+        <v>126.7595154313125</v>
       </c>
       <c r="R26">
-        <v>122.8063358146868</v>
+        <v>507.03806172525</v>
       </c>
       <c r="S26">
-        <v>0.05058955340352773</v>
+        <v>0.04573566985994806</v>
       </c>
       <c r="T26">
-        <v>0.05058955340352773</v>
+        <v>0.02527560753083492</v>
       </c>
     </row>
   </sheetData>
